--- a/data/trans_orig/P1428-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9196</v>
+        <v>9723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24845</v>
+        <v>25892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05921786553927008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03368500487819595</v>
+        <v>0.03561479319811821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09100450639848032</v>
+        <v>0.09484044936273447</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>34436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24337</v>
+        <v>24514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46930</v>
+        <v>46390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1320204873440101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09330143539432255</v>
+        <v>0.09398221382266984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1799186423409125</v>
+        <v>0.1778486957189667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -786,19 +786,19 @@
         <v>50603</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38193</v>
+        <v>38323</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65056</v>
+        <v>65237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09478921879964007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0715434745498275</v>
+        <v>0.07178671947649445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1218617996619418</v>
+        <v>0.1222018067097883</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>256843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248165</v>
+        <v>247118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263814</v>
+        <v>263287</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9407821344607299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9089954936015197</v>
+        <v>0.9051595506372655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9663149951218041</v>
+        <v>0.9643852068018818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -836,19 +836,19 @@
         <v>226402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>213908</v>
+        <v>214448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236501</v>
+        <v>236324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8679795126559899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8200813576590874</v>
+        <v>0.8221513042810331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9066985646056769</v>
+        <v>0.9060177861773302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -857,19 +857,19 @@
         <v>483245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>468792</v>
+        <v>468611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>495655</v>
+        <v>495525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9052107812003599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8781382003380579</v>
+        <v>0.8777981932902116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9284565254501723</v>
+        <v>0.9282132805235054</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13952</v>
+        <v>14730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32785</v>
+        <v>33462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04562431255539297</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02829573962308266</v>
+        <v>0.02987414506407229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06649107240982481</v>
+        <v>0.06786324384026492</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -982,19 +982,19 @@
         <v>92520</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76877</v>
+        <v>76039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111461</v>
+        <v>110819</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1835893386816039</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1525493207549513</v>
+        <v>0.1508860271758756</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.221174566143176</v>
+        <v>0.2199014350814626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -1003,19 +1003,19 @@
         <v>115016</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96681</v>
+        <v>95610</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136902</v>
+        <v>136431</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1153591769109394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09696964557587881</v>
+        <v>0.09589569394113628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1373102924209668</v>
+        <v>0.1368385122509968</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>470579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460290</v>
+        <v>459613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>479123</v>
+        <v>478345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.954375687444607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9335089275901753</v>
+        <v>0.9321367561597351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9717042603769176</v>
+        <v>0.9701258549359278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>409</v>
@@ -1053,19 +1053,19 @@
         <v>411429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392488</v>
+        <v>393130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>427072</v>
+        <v>427910</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8164106613183961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7788254338568239</v>
+        <v>0.7800985649185374</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8474506792450488</v>
+        <v>0.8491139728241244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>851</v>
@@ -1074,19 +1074,19 @@
         <v>882008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>860122</v>
+        <v>860593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>900343</v>
+        <v>901414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8846408230890607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8626897075790331</v>
+        <v>0.8631614877490033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9030303544241212</v>
+        <v>0.9041043060588635</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11707</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6671</v>
+        <v>6518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20089</v>
+        <v>19689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0367167794228651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02092178570423795</v>
+        <v>0.02044106419452939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06300606508790953</v>
+        <v>0.06174957995682215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1199,19 +1199,19 @@
         <v>61732</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48756</v>
+        <v>49642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77461</v>
+        <v>77815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1840473056133395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1453623835021781</v>
+        <v>0.1480038434589732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2309430738280782</v>
+        <v>0.231996906721025</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1220,19 +1220,19 @@
         <v>73439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58737</v>
+        <v>59118</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89617</v>
+        <v>91332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.112247278510166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08977656282625414</v>
+        <v>0.09035873298058306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1369748828798778</v>
+        <v>0.1395959483319426</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>307139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298757</v>
+        <v>299157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312175</v>
+        <v>312328</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9632832205771349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9369939349120906</v>
+        <v>0.9382504200431779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.979078214295762</v>
+        <v>0.9795589358054714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>273</v>
@@ -1270,19 +1270,19 @@
         <v>273680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>257951</v>
+        <v>257597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286656</v>
+        <v>285770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8159526943866605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7690569261719216</v>
+        <v>0.7680030932789749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8546376164978219</v>
+        <v>0.8519961565410269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>571</v>
@@ -1291,19 +1291,19 @@
         <v>580819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>564641</v>
+        <v>562926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595521</v>
+        <v>595140</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.887752721489834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8630251171201222</v>
+        <v>0.8604040516680574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9102234371737459</v>
+        <v>0.9096412670194169</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>23692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15625</v>
+        <v>16091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33508</v>
+        <v>35098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06605429083544997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04356259746225377</v>
+        <v>0.04486332716181106</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09342158623221673</v>
+        <v>0.09785515911381666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1416,19 +1416,19 @@
         <v>63976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50961</v>
+        <v>50879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78115</v>
+        <v>80218</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1722297985199995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1371920120569737</v>
+        <v>0.1369716762227556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2102935016031409</v>
+        <v>0.2159551767128584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -1437,19 +1437,19 @@
         <v>87668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71528</v>
+        <v>71627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106236</v>
+        <v>105145</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1200716350904271</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09796662353619463</v>
+        <v>0.09810159916272114</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1455036852217044</v>
+        <v>0.1440096556543209</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>334979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325163</v>
+        <v>323573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343046</v>
+        <v>342580</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.93394570916455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9065784137677833</v>
+        <v>0.9021448408861836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9564374025377462</v>
+        <v>0.955136672838189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -1487,19 +1487,19 @@
         <v>307480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293341</v>
+        <v>291238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320495</v>
+        <v>320577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8277702014800005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.789706498396859</v>
+        <v>0.7840448232871415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8628079879430263</v>
+        <v>0.863028323777244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>655</v>
@@ -1508,19 +1508,19 @@
         <v>642459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623891</v>
+        <v>624982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>658599</v>
+        <v>658500</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8799283649095728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8544963147782955</v>
+        <v>0.8559903443456794</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9020333764638053</v>
+        <v>0.9018984008372788</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15294</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8984</v>
+        <v>8185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24768</v>
+        <v>24322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07522641317771457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04419112341717776</v>
+        <v>0.04026042578196434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1218233755335743</v>
+        <v>0.1196335734851702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1633,19 +1633,19 @@
         <v>42108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30584</v>
+        <v>30735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54813</v>
+        <v>55196</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2027645453155815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.147275222980221</v>
+        <v>0.1480014666979721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2639432584040521</v>
+        <v>0.2657889601110444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1654,19 +1654,19 @@
         <v>57402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44751</v>
+        <v>44124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71485</v>
+        <v>73324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1396719911687673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1088898814418671</v>
+        <v>0.1073631181264059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1739406169276421</v>
+        <v>0.1784144019314723</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>188014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178540</v>
+        <v>178986</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194324</v>
+        <v>195123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9247735868222854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8781766244664256</v>
+        <v>0.8803664265148302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9558088765828223</v>
+        <v>0.9597395742180356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>159</v>
@@ -1704,19 +1704,19 @@
         <v>165560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>152855</v>
+        <v>152472</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177084</v>
+        <v>176933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7972354546844185</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7360567415959479</v>
+        <v>0.7342110398889554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8527247770197797</v>
+        <v>0.8519985333020279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>350</v>
@@ -1725,19 +1725,19 @@
         <v>353574</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339491</v>
+        <v>337652</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366225</v>
+        <v>366852</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8603280088312327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8260593830723577</v>
+        <v>0.8215855980685278</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8911101185581327</v>
+        <v>0.8926368818735942</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11193</v>
+        <v>10590</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27274</v>
+        <v>25872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06559615091983512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04133296464106245</v>
+        <v>0.0391058938701237</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1007140775077227</v>
+        <v>0.09553651824342602</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1850,19 +1850,19 @@
         <v>47866</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36249</v>
+        <v>36079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61361</v>
+        <v>62557</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1720890121855949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1303239724946014</v>
+        <v>0.1297134944293684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2206073924912599</v>
+        <v>0.2249081167485169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1871,19 +1871,19 @@
         <v>65630</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51169</v>
+        <v>52143</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81642</v>
+        <v>80477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1195538527136185</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09321195042820916</v>
+        <v>0.09498675218665535</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1487233616462167</v>
+        <v>0.1466001259033364</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>253047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243537</v>
+        <v>244939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259618</v>
+        <v>260221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9344038490801648</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8992859224922773</v>
+        <v>0.9044634817565742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9586670353589376</v>
+        <v>0.9608941061298764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -1921,19 +1921,19 @@
         <v>230278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216783</v>
+        <v>215587</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>241895</v>
+        <v>242065</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8279109878144051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.77939260750874</v>
+        <v>0.775091883251484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8696760275053985</v>
+        <v>0.8702865055706316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>472</v>
@@ -1942,19 +1942,19 @@
         <v>483325</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>467313</v>
+        <v>468478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497786</v>
+        <v>496812</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8804461472863815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8512766383537833</v>
+        <v>0.8533998740966636</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9067880495717908</v>
+        <v>0.9050132478133446</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>49965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37643</v>
+        <v>37787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64226</v>
+        <v>64165</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08124004044925956</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06120538464398975</v>
+        <v>0.06143897468514122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1044279404199839</v>
+        <v>0.1043284325818883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -2067,19 +2067,19 @@
         <v>93928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77378</v>
+        <v>76894</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110594</v>
+        <v>111976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1471714318236045</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1212403002108868</v>
+        <v>0.1204818647004001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1732853365161182</v>
+        <v>0.175450669332307</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -2088,19 +2088,19 @@
         <v>143892</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>122286</v>
+        <v>123058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166792</v>
+        <v>167298</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.114815785180553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0975757315347978</v>
+        <v>0.09819162994903813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1330882320432021</v>
+        <v>0.133492135645867</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>565062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>550801</v>
+        <v>550862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>577384</v>
+        <v>577240</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9187599595507404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.895572059580016</v>
+        <v>0.8956715674181116</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9387946153560102</v>
+        <v>0.9385610253148585</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>528</v>
@@ -2138,19 +2138,19 @@
         <v>544291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>527625</v>
+        <v>526243</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>560841</v>
+        <v>561325</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8528285681763955</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8267146634838818</v>
+        <v>0.824549330667693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8787596997891129</v>
+        <v>0.8795181352995995</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1076</v>
@@ -2159,19 +2159,19 @@
         <v>1109354</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1086454</v>
+        <v>1085948</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1130960</v>
+        <v>1130188</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.885184214819447</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8669117679567978</v>
+        <v>0.8665078643541327</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9024242684652024</v>
+        <v>0.9018083700509618</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>79473</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63315</v>
+        <v>65423</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96639</v>
+        <v>98039</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1068473301551068</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08512413017414035</v>
+        <v>0.08795859178580495</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1299272450224065</v>
+        <v>0.1318085336211959</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -2284,19 +2284,19 @@
         <v>159989</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>137955</v>
+        <v>138833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183930</v>
+        <v>185971</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2041954587358008</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1760722817542625</v>
+        <v>0.177193425032739</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2347508037239825</v>
+        <v>0.2373565343716324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>233</v>
@@ -2305,19 +2305,19 @@
         <v>239462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211250</v>
+        <v>207932</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>265009</v>
+        <v>267235</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1567871113659622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1383152496596114</v>
+        <v>0.1361426966134829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1735142472677266</v>
+        <v>0.1749716886071756</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>664322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>647156</v>
+        <v>645756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>680480</v>
+        <v>678372</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8931526698448933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8700727549775936</v>
+        <v>0.8681914663788041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9148758698258599</v>
+        <v>0.9120414082141951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>596</v>
@@ -2355,19 +2355,19 @@
         <v>623522</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>599581</v>
+        <v>597540</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>645556</v>
+        <v>644678</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7958045412641993</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.765249196276018</v>
+        <v>0.7626434656283676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8239277182457375</v>
+        <v>0.8228065749672612</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1248</v>
@@ -2376,19 +2376,19 @@
         <v>1287844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1262297</v>
+        <v>1260071</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1316056</v>
+        <v>1319374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8432128886340378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8264857527322733</v>
+        <v>0.8250283113928245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8616847503403886</v>
+        <v>0.8638573033865171</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>236558</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07219732892719168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>577</v>
@@ -2501,19 +2501,19 @@
         <v>596553</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1765370015432699</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>822</v>
@@ -2522,19 +2522,19 @@
         <v>833111</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1251718002122634</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3039985</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3008997</v>
+        <v>3008647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3066616</v>
+        <v>3066416</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9278026710728083</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9183449476717856</v>
+        <v>0.9182383274123997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9359304551024399</v>
+        <v>0.9358693871407694</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2720</v>
@@ -2572,19 +2572,19 @@
         <v>2782644</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2737138</v>
+        <v>2739826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2828802</v>
+        <v>2827117</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8234629984567301</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8099966531203148</v>
+        <v>0.8107920066501748</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8371224893589951</v>
+        <v>0.8366238530891182</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5689</v>
@@ -2593,19 +2593,19 @@
         <v>5822630</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5772962</v>
+        <v>5769007</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5875933</v>
+        <v>5871425</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8748281997877366</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8673658558582805</v>
+        <v>0.8667716219477226</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8828367716552709</v>
+        <v>0.8821594460416493</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>12492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6276</v>
+        <v>6242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23683</v>
+        <v>22274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04238188641518654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02129255621259631</v>
+        <v>0.02117926201331965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08035139964742666</v>
+        <v>0.07557284861482455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2962,19 +2962,19 @@
         <v>22822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14061</v>
+        <v>14596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34072</v>
+        <v>34423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07945016325199664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04894979319503343</v>
+        <v>0.05081327543971495</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.118615945382319</v>
+        <v>0.1198385574030788</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -2983,19 +2983,19 @@
         <v>35313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23999</v>
+        <v>24542</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48273</v>
+        <v>49354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06067739783488021</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04123639816180387</v>
+        <v>0.04216916791361307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08294629622013232</v>
+        <v>0.08480261476047293</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>282246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271055</v>
+        <v>272464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288462</v>
+        <v>288496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9576181135848134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9196486003525732</v>
+        <v>0.9244271513851755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9787074437874037</v>
+        <v>0.978820737986681</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -3033,19 +3033,19 @@
         <v>264423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253173</v>
+        <v>252822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>273184</v>
+        <v>272649</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9205498367480034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.881384054617681</v>
+        <v>0.8801614425969213</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9510502068049665</v>
+        <v>0.9491867245602851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -3054,19 +3054,19 @@
         <v>546670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533710</v>
+        <v>532629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>557984</v>
+        <v>557441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9393226021651198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9170537037798677</v>
+        <v>0.9151973852395271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9587636018381961</v>
+        <v>0.957830832086387</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>14516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7950</v>
+        <v>7921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25302</v>
+        <v>26475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02871392880185413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01572523408181267</v>
+        <v>0.01566932213665796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05005074330368049</v>
+        <v>0.05237146819316059</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3179,19 +3179,19 @@
         <v>49185</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36410</v>
+        <v>36807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64494</v>
+        <v>64626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09390742325267262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06951514693221811</v>
+        <v>0.07027297551244863</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1231345551902703</v>
+        <v>0.1233878554722789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -3200,19 +3200,19 @@
         <v>63701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49164</v>
+        <v>48876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82199</v>
+        <v>82131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06188824885591444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04776512279940454</v>
+        <v>0.04748536602339232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07985947765283651</v>
+        <v>0.07979346049784437</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>491011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480225</v>
+        <v>479052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497577</v>
+        <v>497606</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9712860711981459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9499492566963197</v>
+        <v>0.9476285318068398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9842747659181902</v>
+        <v>0.9843306778633419</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -3250,19 +3250,19 @@
         <v>474580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>459271</v>
+        <v>459139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>487355</v>
+        <v>486958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9060925767473273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8768654448097295</v>
+        <v>0.876612144527721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9304848530677813</v>
+        <v>0.9297270244875508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>895</v>
@@ -3271,19 +3271,19 @@
         <v>965591</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947093</v>
+        <v>947161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>980128</v>
+        <v>980416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9381117511440855</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9201405223471635</v>
+        <v>0.9202065395021559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9522348772005955</v>
+        <v>0.9525146339766077</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>23250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15054</v>
+        <v>15000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35317</v>
+        <v>34452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07174786561224288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0464553247768958</v>
+        <v>0.04628847952100998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1089877663921681</v>
+        <v>0.1063191358654213</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -3396,19 +3396,19 @@
         <v>50328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37837</v>
+        <v>37206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63756</v>
+        <v>64573</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.147581404616679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1109524599125605</v>
+        <v>0.1091023796413537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1869555906815548</v>
+        <v>0.189352960458577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -3417,19 +3417,19 @@
         <v>73578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58841</v>
+        <v>58986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93001</v>
+        <v>90837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1106323578919979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08847369908659011</v>
+        <v>0.08869178301309545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1398373897919391</v>
+        <v>0.1365841092221381</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>300796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288729</v>
+        <v>289594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308992</v>
+        <v>309046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9282521343877571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8910122336078318</v>
+        <v>0.8936808641345786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9535446752231042</v>
+        <v>0.95371152047899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -3467,19 +3467,19 @@
         <v>290692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277264</v>
+        <v>276447</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303183</v>
+        <v>303814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.852418595383321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8130444093184451</v>
+        <v>0.810647039541423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8890475400874395</v>
+        <v>0.8908976203586464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>567</v>
@@ -3488,19 +3488,19 @@
         <v>591488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572065</v>
+        <v>574229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>606225</v>
+        <v>606080</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8893676421080021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8601626102080607</v>
+        <v>0.863415890777862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9115263009134098</v>
+        <v>0.911308216986905</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>16699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9324</v>
+        <v>9958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27075</v>
+        <v>26732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04465130101001197</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02493207778148693</v>
+        <v>0.02662776422616469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07239754902959562</v>
+        <v>0.07147876948287522</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -3613,19 +3613,19 @@
         <v>45055</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32341</v>
+        <v>32549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57960</v>
+        <v>57813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.115838027181575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08314918956513084</v>
+        <v>0.08368444987770951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1490169401042375</v>
+        <v>0.1486372503917219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -3634,19 +3634,19 @@
         <v>61754</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48809</v>
+        <v>46701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78700</v>
+        <v>77277</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08094301209969243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06397489770999243</v>
+        <v>0.0612129109268899</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1031546914917805</v>
+        <v>0.1012893755236906</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>357283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346907</v>
+        <v>347250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364658</v>
+        <v>364024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9553486989899881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9276024509704045</v>
+        <v>0.9285212305171247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750679222185131</v>
+        <v>0.9733722357738352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -3684,19 +3684,19 @@
         <v>343896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>330991</v>
+        <v>331138</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356610</v>
+        <v>356402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.884161972818425</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8509830598957628</v>
+        <v>0.8513627496082786</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9168508104348693</v>
+        <v>0.9163155501222907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>657</v>
@@ -3705,19 +3705,19 @@
         <v>701179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>684233</v>
+        <v>685656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>714124</v>
+        <v>716232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9190569879003075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8968453085082195</v>
+        <v>0.8987106244763094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9360251022900076</v>
+        <v>0.9387870890731101</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>11079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5412</v>
+        <v>5467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18815</v>
+        <v>18941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05210785635872815</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02545580057950586</v>
+        <v>0.02571055286270453</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08849407677144705</v>
+        <v>0.0890833965766908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3830,19 +3830,19 @@
         <v>34421</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23065</v>
+        <v>24944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47110</v>
+        <v>48059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1567484420067662</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1050375975532696</v>
+        <v>0.113594900330525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2145340522833236</v>
+        <v>0.2188584979484585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3851,19 +3851,19 @@
         <v>45500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33601</v>
+        <v>33695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60437</v>
+        <v>59265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1052722484703751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07774134605572695</v>
+        <v>0.07795918003355917</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.139833569461381</v>
+        <v>0.1371205697231871</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>201539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193803</v>
+        <v>193677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207206</v>
+        <v>207151</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9478921436412718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.911505923228553</v>
+        <v>0.9109166034233092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745441994204941</v>
+        <v>0.9742894471372955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -3901,19 +3901,19 @@
         <v>185170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172481</v>
+        <v>171532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196526</v>
+        <v>194647</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8432515579932338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7854659477166767</v>
+        <v>0.7811415020515413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8949624024467304</v>
+        <v>0.886405099669475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>366</v>
@@ -3922,19 +3922,19 @@
         <v>386709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371772</v>
+        <v>372944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>398608</v>
+        <v>398514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8947277515296249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8601664305386189</v>
+        <v>0.862879430276813</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9222586539442731</v>
+        <v>0.9220408199664408</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>31074</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21841</v>
+        <v>22063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42543</v>
+        <v>42173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.11341607331398</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07971719623646957</v>
+        <v>0.080529123048996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1552783925341769</v>
+        <v>0.1539254937837451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -4047,19 +4047,19 @@
         <v>56935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44496</v>
+        <v>43778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72462</v>
+        <v>70488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2047296750956479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1600031260671588</v>
+        <v>0.1574188101261808</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.26056563383457</v>
+        <v>0.2534669198822683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -4068,19 +4068,19 @@
         <v>88008</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70664</v>
+        <v>71331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105125</v>
+        <v>104915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1594131640684887</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1279973939495428</v>
+        <v>0.1292050629386835</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.190416720228867</v>
+        <v>0.1900374618975811</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>242907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231438</v>
+        <v>231808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252140</v>
+        <v>251918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.88658392668602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8447216074658234</v>
+        <v>0.846074506216255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9202828037635307</v>
+        <v>0.9194708769510044</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -4118,19 +4118,19 @@
         <v>221161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205634</v>
+        <v>207608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>233600</v>
+        <v>234318</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.795270324904352</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.73943436616543</v>
+        <v>0.7465330801177316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8399968739328412</v>
+        <v>0.8425811898738192</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>443</v>
@@ -4139,19 +4139,19 @@
         <v>464069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>446952</v>
+        <v>447162</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>481413</v>
+        <v>480746</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8405868359315113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8095832797711329</v>
+        <v>0.8099625381024188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8720026060504572</v>
+        <v>0.8707949370613165</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>40432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27388</v>
+        <v>28784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55046</v>
+        <v>56036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06100359526021282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04132183552780832</v>
+        <v>0.04342802631425546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08305190968058897</v>
+        <v>0.08454553095862719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -4264,19 +4264,19 @@
         <v>107681</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88932</v>
+        <v>88750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129510</v>
+        <v>129242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1551932945624133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1281714673342705</v>
+        <v>0.127908551449173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1866539784452958</v>
+        <v>0.1862666119201069</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -4285,19 +4285,19 @@
         <v>148114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126198</v>
+        <v>124380</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174474</v>
+        <v>172316</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1091768424139637</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09302261331456516</v>
+        <v>0.09168212452028987</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.128607389453844</v>
+        <v>0.1270163450312953</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>622356</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>607742</v>
+        <v>606752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>635400</v>
+        <v>634004</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9389964047397872</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9169480903194108</v>
+        <v>0.9154544690413748</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9586781644721917</v>
+        <v>0.9565719736857448</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>541</v>
@@ -4335,19 +4335,19 @@
         <v>586172</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>564343</v>
+        <v>564611</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>604921</v>
+        <v>605103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8448067054375866</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8133460215547039</v>
+        <v>0.813733388079893</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8718285326657292</v>
+        <v>0.872091448550827</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1123</v>
@@ -4356,19 +4356,19 @@
         <v>1208527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1182167</v>
+        <v>1184325</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1230443</v>
+        <v>1232261</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8908231575860363</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8713926105461559</v>
+        <v>0.8729836549687042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9069773866854348</v>
+        <v>0.9083178754797095</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>26763</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16978</v>
+        <v>18112</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38688</v>
+        <v>38979</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03435092783450475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02179232729223887</v>
+        <v>0.02324760081638469</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04965798477441254</v>
+        <v>0.05003125320059704</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -4481,19 +4481,19 @@
         <v>74250</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58343</v>
+        <v>58596</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91869</v>
+        <v>95259</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09026526275629376</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07092659034468518</v>
+        <v>0.07123458967042315</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1116844881507187</v>
+        <v>0.1158054238403473</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -4502,19 +4502,19 @@
         <v>101013</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82494</v>
+        <v>81807</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123063</v>
+        <v>121903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06306702475146354</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05150500622632596</v>
+        <v>0.05107577157803218</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07683385091404379</v>
+        <v>0.07610984481086083</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>752335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>740410</v>
+        <v>740119</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>762120</v>
+        <v>760986</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9656490721654952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9503420152255875</v>
+        <v>0.949968746799403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9782076727077611</v>
+        <v>0.9767523991836153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>689</v>
@@ -4552,19 +4552,19 @@
         <v>748328</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>730709</v>
+        <v>727319</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>764235</v>
+        <v>763982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9097347372437062</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8883155118492813</v>
+        <v>0.8841945761596527</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9290734096553148</v>
+        <v>0.9287654103295769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1382</v>
@@ -4573,19 +4573,19 @@
         <v>1500663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1478613</v>
+        <v>1479773</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1519182</v>
+        <v>1519869</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9369329752485365</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.923166149085956</v>
+        <v>0.923890155189139</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9484949937736735</v>
+        <v>0.9489242284219674</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>176304</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05144882674475209</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>405</v>
@@ -4698,19 +4698,19 @@
         <v>440677</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1239563813994062</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>565</v>
@@ -4719,19 +4719,19 @@
         <v>616981</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08836891046857921</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3250475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3221111</v>
+        <v>3219451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3272995</v>
+        <v>3274301</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.948551173255248</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9399821271051605</v>
+        <v>0.9394977723862159</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9551229423817355</v>
+        <v>0.9555040170650722</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2891</v>
@@ -4769,19 +4769,19 @@
         <v>3114421</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3072797</v>
+        <v>3072159</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3152397</v>
+        <v>3153721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8760436186005938</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8643355056876357</v>
+        <v>0.8641560567052804</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.886725860263171</v>
+        <v>0.8870980842145092</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5940</v>
@@ -4790,19 +4790,19 @@
         <v>6364896</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6312940</v>
+        <v>6314271</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6411691</v>
+        <v>6416577</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9116310895314208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9041895650775851</v>
+        <v>0.9043802010007798</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9183333996467362</v>
+        <v>0.9190331962568744</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>16537</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9579</v>
+        <v>9938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26239</v>
+        <v>26263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05629270773818926</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03260842110049002</v>
+        <v>0.0338286314563273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08932214644309489</v>
+        <v>0.08940301484172324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5159,19 +5159,19 @@
         <v>25327</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16858</v>
+        <v>16674</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37164</v>
+        <v>36376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08772762752048602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05839070269071452</v>
+        <v>0.05775518495848017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1287268620896239</v>
+        <v>0.1259973284661655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -5180,19 +5180,19 @@
         <v>41864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29684</v>
+        <v>29666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55865</v>
+        <v>56068</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07187368034884438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05096215674772627</v>
+        <v>0.0509322487773084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09591207240718243</v>
+        <v>0.09625981137232353</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>277224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267522</v>
+        <v>267498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284182</v>
+        <v>283823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9437072922618107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9106778535569051</v>
+        <v>0.9105969851582768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.96739157889951</v>
+        <v>0.9661713685436728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -5230,19 +5230,19 @@
         <v>263376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251539</v>
+        <v>252327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271845</v>
+        <v>272029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.912272372479514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.871273137910376</v>
+        <v>0.8740026715338344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9416092973092856</v>
+        <v>0.9422448150415198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>504</v>
@@ -5251,19 +5251,19 @@
         <v>540600</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>526599</v>
+        <v>526396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>552780</v>
+        <v>552798</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9281263196511557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9040879275928178</v>
+        <v>0.9037401886276765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.949037843252274</v>
+        <v>0.9490677512226917</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>15387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8788</v>
+        <v>8808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24389</v>
+        <v>24242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03061537290113015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01748499251662807</v>
+        <v>0.01752667759851151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04852857754728682</v>
+        <v>0.04823515477145709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -5376,19 +5376,19 @@
         <v>48660</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36245</v>
+        <v>36142</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64017</v>
+        <v>64110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09302508115287528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06929007981577902</v>
+        <v>0.06909459010588653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1223834946803758</v>
+        <v>0.1225621179032672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -5397,19 +5397,19 @@
         <v>64046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50287</v>
+        <v>48497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84037</v>
+        <v>83995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06244418571685374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04902910675515187</v>
+        <v>0.04728334151023647</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08193459196051786</v>
+        <v>0.08189403169424378</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>487188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478186</v>
+        <v>478333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493787</v>
+        <v>493767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9693846270988699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9514714224527132</v>
+        <v>0.951764845228543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825150074833719</v>
+        <v>0.9824733224014885</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -5447,19 +5447,19 @@
         <v>474424</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>459067</v>
+        <v>458974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486839</v>
+        <v>486942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9069749188471247</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8776165053196244</v>
+        <v>0.8774378820967328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9307099201842212</v>
+        <v>0.9309054098941134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>902</v>
@@ -5468,19 +5468,19 @@
         <v>961613</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>941622</v>
+        <v>941664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975372</v>
+        <v>977162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9375558142831463</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9180654080394823</v>
+        <v>0.9181059683057565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9509708932448482</v>
+        <v>0.9527166584897635</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>12304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6706</v>
+        <v>7270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20542</v>
+        <v>20373</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03862442581595003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02105135263569959</v>
+        <v>0.02282133068750775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06448441574930688</v>
+        <v>0.06395276952352548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -5593,19 +5593,19 @@
         <v>26331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17666</v>
+        <v>18553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36902</v>
+        <v>39054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07829374052295987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05252973333198407</v>
+        <v>0.05516637772676258</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1097273690933209</v>
+        <v>0.116125674893957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -5614,19 +5614,19 @@
         <v>38635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29042</v>
+        <v>28231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52457</v>
+        <v>51355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05899650906732917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04434742483066258</v>
+        <v>0.04310974506525483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08010211315848405</v>
+        <v>0.07841979982914089</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>306261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298023</v>
+        <v>298192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311859</v>
+        <v>311295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.96137557418405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.935515584250693</v>
+        <v>0.9360472304764745</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9789486473643003</v>
+        <v>0.9771786693124921</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>307</v>
@@ -5664,19 +5664,19 @@
         <v>309978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299407</v>
+        <v>297255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318643</v>
+        <v>317756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9217062594770401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8902726309066791</v>
+        <v>0.883874325106042</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9474702666680159</v>
+        <v>0.9448336222732373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -5685,19 +5685,19 @@
         <v>616239</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>602417</v>
+        <v>603519</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>625832</v>
+        <v>626643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9410034909326709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.919897886841516</v>
+        <v>0.9215802001708595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9556525751693375</v>
+        <v>0.9568902549347452</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>15464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9227</v>
+        <v>8888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25402</v>
+        <v>25530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04179829987793361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02493910730258197</v>
+        <v>0.02402278449752066</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06866173232393104</v>
+        <v>0.06900692707758425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5810,19 +5810,19 @@
         <v>50024</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37567</v>
+        <v>36834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64861</v>
+        <v>63642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1291668192185713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09700131912853335</v>
+        <v>0.09510876732847814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1674768939741278</v>
+        <v>0.1643304938059765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -5831,19 +5831,19 @@
         <v>65488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51357</v>
+        <v>50498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83754</v>
+        <v>82959</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0864816626291659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06782003490986041</v>
+        <v>0.06668660843080651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1106034551393236</v>
+        <v>0.1095539649383381</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>354500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344562</v>
+        <v>344434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360737</v>
+        <v>361076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9582017001220664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9313382676760696</v>
+        <v>0.9309930729224162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750608926974182</v>
+        <v>0.9759772155024796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -5881,19 +5881,19 @@
         <v>337259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>322422</v>
+        <v>323641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349716</v>
+        <v>350449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8708331807814287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8325231060258721</v>
+        <v>0.8356695061940232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9029986808714666</v>
+        <v>0.9048912326715218</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>652</v>
@@ -5902,19 +5902,19 @@
         <v>691759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>673493</v>
+        <v>674288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>705890</v>
+        <v>706749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9135183373708341</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.889396544860676</v>
+        <v>0.8904460350616616</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9321799650901395</v>
+        <v>0.9333133915691935</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>6244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2345</v>
+        <v>2023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13331</v>
+        <v>12941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02956057915898552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01110387097746986</v>
+        <v>0.009576403708023776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06311167722984475</v>
+        <v>0.06126812287105131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6027,19 +6027,19 @@
         <v>21346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13264</v>
+        <v>13515</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32359</v>
+        <v>31663</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09765666817789877</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06067862226843357</v>
+        <v>0.06183069072155223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1480376983983007</v>
+        <v>0.1448543664747137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>27590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18606</v>
+        <v>17909</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38935</v>
+        <v>39637</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06419213527399155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04328893201645673</v>
+        <v>0.04166718172048189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09058592888519347</v>
+        <v>0.09222048054167273</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>204977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197890</v>
+        <v>198280</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208876</v>
+        <v>209198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9704394208410145</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9368883227701553</v>
+        <v>0.9387318771289488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9888961290225303</v>
+        <v>0.9904235962919763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -6098,19 +6098,19 @@
         <v>197241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186228</v>
+        <v>186924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205323</v>
+        <v>205072</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9023433318221012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8519623016016995</v>
+        <v>0.8551456335252865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9393213777315665</v>
+        <v>0.9381693092784478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -6119,19 +6119,19 @@
         <v>402218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390873</v>
+        <v>390171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411202</v>
+        <v>411899</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9358078647260084</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9094140711148064</v>
+        <v>0.9077795194583272</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9567110679835432</v>
+        <v>0.958332818279518</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>11361</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5900</v>
+        <v>5902</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18934</v>
+        <v>18980</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04317789560344237</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02242145126110948</v>
+        <v>0.02243143656549438</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07195712656885446</v>
+        <v>0.07213457531378388</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -6244,19 +6244,19 @@
         <v>35682</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24905</v>
+        <v>25632</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48882</v>
+        <v>50101</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1306469427650078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09119033278240445</v>
+        <v>0.09385215109307202</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1789791882676406</v>
+        <v>0.1834432286504047</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -6265,19 +6265,19 @@
         <v>47043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34562</v>
+        <v>34549</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61688</v>
+        <v>61168</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08772734728480108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06445311105820062</v>
+        <v>0.06442873762221787</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1150381442829114</v>
+        <v>0.1140688113978122</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>251762</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244189</v>
+        <v>244143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257223</v>
+        <v>257221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9568221043965576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9280428734311452</v>
+        <v>0.9278654246862161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9775785487388905</v>
+        <v>0.9775685634345055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>231</v>
@@ -6315,19 +6315,19 @@
         <v>237433</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224233</v>
+        <v>223014</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248210</v>
+        <v>247483</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8693530572349922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8210208117323594</v>
+        <v>0.8165567713495953</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9088096672175956</v>
+        <v>0.9061478489069279</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>478</v>
@@ -6336,19 +6336,19 @@
         <v>489195</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>474550</v>
+        <v>475070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501676</v>
+        <v>501689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.912272652715199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8849618557170885</v>
+        <v>0.8859311886021879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9355468889417994</v>
+        <v>0.9355712623777821</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>23957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15975</v>
+        <v>15803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35088</v>
+        <v>34674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03648888008915808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02433215153935389</v>
+        <v>0.02406978180357106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05344159190704732</v>
+        <v>0.05281163433900334</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -6461,19 +6461,19 @@
         <v>55354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41576</v>
+        <v>41435</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71875</v>
+        <v>71619</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08007318951289735</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06014287478607164</v>
+        <v>0.059938157676668</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1039717143046204</v>
+        <v>0.1036008951106683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -6482,19 +6482,19 @@
         <v>79311</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62535</v>
+        <v>63096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96683</v>
+        <v>99867</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05884264865886685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04639637832224071</v>
+        <v>0.04681195197236011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0717315243888666</v>
+        <v>0.07409378283957024</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>632601</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>621470</v>
+        <v>621884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>640583</v>
+        <v>640755</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9635111199108419</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9465584080929527</v>
+        <v>0.9471883656609966</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.975667848460646</v>
+        <v>0.9759302181964289</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -6532,19 +6532,19 @@
         <v>635940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619419</v>
+        <v>619675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>649718</v>
+        <v>649859</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9199268104871027</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8960282856953795</v>
+        <v>0.8963991048893317</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9398571252139284</v>
+        <v>0.9400618423233319</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1154</v>
@@ -6553,19 +6553,19 @@
         <v>1268541</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1251169</v>
+        <v>1247985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285317</v>
+        <v>1284756</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9411573513411331</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9282684756111333</v>
+        <v>0.9259062171604298</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9536036216777593</v>
+        <v>0.9531880480276398</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>20691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12314</v>
+        <v>12014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33793</v>
+        <v>31193</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02657575078274541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01581614633995425</v>
+        <v>0.01543079414683171</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04340372044030979</v>
+        <v>0.04006434377347233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -6678,19 +6678,19 @@
         <v>69359</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54309</v>
+        <v>52874</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87996</v>
+        <v>87820</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08395234693180437</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0657365887783169</v>
+        <v>0.06399953934756862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1065107294708915</v>
+        <v>0.1062983265295654</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -6699,19 +6699,19 @@
         <v>90050</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71730</v>
+        <v>70871</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110299</v>
+        <v>112116</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0561147135251585</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04469831881706635</v>
+        <v>0.04416351885311593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06873310759212066</v>
+        <v>0.06986483509450347</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>757892</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>744790</v>
+        <v>747390</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>766269</v>
+        <v>766569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9734242492172546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9565962795596896</v>
+        <v>0.9599356562265278</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9841838536600456</v>
+        <v>0.9845692058531684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>698</v>
@@ -6749,19 +6749,19 @@
         <v>756808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>738171</v>
+        <v>738347</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>771858</v>
+        <v>773293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9160476530681956</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8934892705291085</v>
+        <v>0.8937016734704346</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9342634112216831</v>
+        <v>0.9360004606524314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1430</v>
@@ -6770,19 +6770,19 @@
         <v>1514700</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1494451</v>
+        <v>1492634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1533020</v>
+        <v>1533879</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9438852864748415</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9312668924078805</v>
+        <v>0.9301351649054964</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9553016811829338</v>
+        <v>0.955836481146884</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>121945</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03592581320830929</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>292</v>
@@ -6895,19 +6895,19 @@
         <v>332083</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09368856557978152</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>412</v>
@@ -6916,19 +6916,19 @@
         <v>454028</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0654323239974996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3272405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3249122</v>
+        <v>3247917</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3292963</v>
+        <v>3292757</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9640741867916908</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9572147185960275</v>
+        <v>0.9568597698575062</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9701305910954295</v>
+        <v>0.9700699733329681</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3046</v>
@@ -6966,19 +6966,19 @@
         <v>3212459</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3174358</v>
+        <v>3176073</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3249012</v>
+        <v>3248933</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9063114344202184</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8955622074022871</v>
+        <v>0.8960461833059862</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9166240606594539</v>
+        <v>0.9166016836457069</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6157</v>
@@ -6987,19 +6987,19 @@
         <v>6484864</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6439749</v>
+        <v>6440041</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6525539</v>
+        <v>6526492</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9345676760025003</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9280658440298737</v>
+        <v>0.9281079228291254</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9404295598985365</v>
+        <v>0.9405668662301038</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>9238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5030</v>
+        <v>5363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15643</v>
+        <v>15655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02897251883043329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01577648776884599</v>
+        <v>0.0168206214547084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04906121236009174</v>
+        <v>0.04909925196822557</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -7356,19 +7356,19 @@
         <v>24306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17799</v>
+        <v>18046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32068</v>
+        <v>30869</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0769037053214114</v>
+        <v>0.07690370532141139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05631478790759411</v>
+        <v>0.05709619914420771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1014602875395105</v>
+        <v>0.09766760786942062</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -7377,19 +7377,19 @@
         <v>33544</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25998</v>
+        <v>26368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42694</v>
+        <v>43507</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05283300122095655</v>
+        <v>0.05283300122095656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04094727598439826</v>
+        <v>0.04153083410739634</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06724537454757804</v>
+        <v>0.06852447074369539</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>309607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303202</v>
+        <v>303190</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313815</v>
+        <v>313482</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9710274811695666</v>
+        <v>0.9710274811695668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9509387876399089</v>
+        <v>0.9509007480317746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9842235122311541</v>
+        <v>0.9831793785452918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>490</v>
@@ -7427,19 +7427,19 @@
         <v>291755</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283993</v>
+        <v>285192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298262</v>
+        <v>298015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9230962946785887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8985397124604896</v>
+        <v>0.9023323921305795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.943685212092406</v>
+        <v>0.9429038008557924</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>809</v>
@@ -7448,19 +7448,19 @@
         <v>601362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>592212</v>
+        <v>591399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>608908</v>
+        <v>608538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9471669987790435</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9327546254524217</v>
+        <v>0.9314755292563044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9590527240156014</v>
+        <v>0.9584691658926038</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>20346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12866</v>
+        <v>13034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32086</v>
+        <v>32968</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03847995241590296</v>
+        <v>0.03847995241590295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02433387732154507</v>
+        <v>0.02465157833939358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06068278118892321</v>
+        <v>0.06235250760339973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -7573,19 +7573,19 @@
         <v>48429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38880</v>
+        <v>39356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59931</v>
+        <v>60530</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09007271337938419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07231214461024868</v>
+        <v>0.07319748256821629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1114638479079399</v>
+        <v>0.1125782725206365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -7594,19 +7594,19 @@
         <v>68775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55904</v>
+        <v>56445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84414</v>
+        <v>83735</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06449223275193842</v>
+        <v>0.06449223275193841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05242266842834172</v>
+        <v>0.05292990794260338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07915707616491249</v>
+        <v>0.07852013176254449</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>508397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496657</v>
+        <v>495775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>515877</v>
+        <v>515709</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9615200475840971</v>
+        <v>0.9615200475840969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9393172188110767</v>
+        <v>0.9376474923966002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9756661226784545</v>
+        <v>0.9753484216606063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>629</v>
@@ -7644,19 +7644,19 @@
         <v>489239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477737</v>
+        <v>477138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498788</v>
+        <v>498312</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9099272866206158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8885361520920595</v>
+        <v>0.8874217274793634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9276878553897508</v>
+        <v>0.9268025174317837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>990</v>
@@ -7665,19 +7665,19 @@
         <v>997636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>981997</v>
+        <v>982676</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1010507</v>
+        <v>1009966</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9355077672480616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9208429238350876</v>
+        <v>0.9214798682374555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9475773315716582</v>
+        <v>0.9470700920573967</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>18920</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12315</v>
+        <v>12598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26322</v>
+        <v>26649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05987344110430503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03897164256390117</v>
+        <v>0.03986853807193113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08329802156790918</v>
+        <v>0.08433318291505709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -7790,19 +7790,19 @@
         <v>56605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46679</v>
+        <v>46895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67887</v>
+        <v>68144</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1590818615804188</v>
+        <v>0.1590818615804189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1311868996747449</v>
+        <v>0.1317937526038122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1907868095054333</v>
+        <v>0.1915107540922684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -7811,19 +7811,19 @@
         <v>75525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64055</v>
+        <v>63620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89039</v>
+        <v>88693</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1124185850063852</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09534569675372366</v>
+        <v>0.09469846787026386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1325338638851469</v>
+        <v>0.1320192098911026</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>297073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289671</v>
+        <v>289344</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303678</v>
+        <v>303395</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9401265588956951</v>
+        <v>0.9401265588956949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9167019784320907</v>
+        <v>0.9156668170849425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9610283574360988</v>
+        <v>0.9601314619280689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -7861,19 +7861,19 @@
         <v>299219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>287937</v>
+        <v>287680</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>309145</v>
+        <v>308929</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8409181384195811</v>
+        <v>0.8409181384195812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8092131904945669</v>
+        <v>0.8084892459077317</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8688131003252552</v>
+        <v>0.868206247396188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>763</v>
@@ -7882,19 +7882,19 @@
         <v>596293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>582779</v>
+        <v>583125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>607763</v>
+        <v>608198</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.887581414993615</v>
+        <v>0.8875814149936148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8674661361148536</v>
+        <v>0.8679807901088974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9046543032462764</v>
+        <v>0.9053015321297367</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>31640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22645</v>
+        <v>22098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44292</v>
+        <v>43475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08479370207611242</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06068734104971332</v>
+        <v>0.05922161279699734</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1186992244673393</v>
+        <v>0.1165101167212188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -8007,19 +8007,19 @@
         <v>94515</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80664</v>
+        <v>81900</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108926</v>
+        <v>109011</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2242326803074561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1913715867194284</v>
+        <v>0.1943032530456905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.258422471095819</v>
+        <v>0.2586244388444372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>227</v>
@@ -8028,19 +8028,19 @@
         <v>126156</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107629</v>
+        <v>109434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143605</v>
+        <v>145943</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1587561161608972</v>
+        <v>0.1587561161608971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1354415749374469</v>
+        <v>0.1377130754942945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1807144477341584</v>
+        <v>0.1836562734443333</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>341505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328853</v>
+        <v>329670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350500</v>
+        <v>351047</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9152062979238877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8813007755326607</v>
+        <v>0.8834898832787813</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9393126589502864</v>
+        <v>0.9407783872030028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>410</v>
@@ -8078,19 +8078,19 @@
         <v>326990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312579</v>
+        <v>312494</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340841</v>
+        <v>339605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7757673196925441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7415775289041809</v>
+        <v>0.7413755611555627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8086284132805716</v>
+        <v>0.8056967469543094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>663</v>
@@ -8099,19 +8099,19 @@
         <v>668495</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>651046</v>
+        <v>648708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687022</v>
+        <v>685217</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8412438838391031</v>
+        <v>0.8412438838391029</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8192855522658415</v>
+        <v>0.8163437265556664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8645584250625532</v>
+        <v>0.8622869245057053</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>10871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7019</v>
+        <v>7112</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16611</v>
+        <v>16776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05285593724535984</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0341274230930113</v>
+        <v>0.03457896718786587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08076945375177311</v>
+        <v>0.08157119099200454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>106</v>
@@ -8224,19 +8224,19 @@
         <v>40400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33427</v>
+        <v>33158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48061</v>
+        <v>48619</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1784695199776006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1476676951107265</v>
+        <v>0.146477030604656</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2123127992909386</v>
+        <v>0.2147798417598347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -8245,19 +8245,19 @@
         <v>51270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41996</v>
+        <v>43105</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60547</v>
+        <v>59856</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1186724724353843</v>
+        <v>0.1186724724353842</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09720504185814142</v>
+        <v>0.09977242360893424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1401452322127022</v>
+        <v>0.1385438199470396</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>194794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189054</v>
+        <v>188889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198646</v>
+        <v>198553</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.94714406275464</v>
+        <v>0.9471440627546401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9192305462482269</v>
+        <v>0.9184288090079955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9658725769069887</v>
+        <v>0.9654210328121342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>384</v>
@@ -8295,19 +8295,19 @@
         <v>185968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178307</v>
+        <v>177749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192941</v>
+        <v>193210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8215304800223995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7876872007090613</v>
+        <v>0.7852201582401653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8523323048892734</v>
+        <v>0.853522969395344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>644</v>
@@ -8316,19 +8316,19 @@
         <v>380763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371486</v>
+        <v>372177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>390037</v>
+        <v>388928</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8813275275646157</v>
+        <v>0.8813275275646155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8598547677872977</v>
+        <v>0.8614561800529603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9027949581418585</v>
+        <v>0.9002275763910657</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>22761</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16433</v>
+        <v>17104</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30667</v>
+        <v>30741</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08408040067844835</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06070392031788518</v>
+        <v>0.06318171131086184</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.113286661583204</v>
+        <v>0.1135563718728933</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -8441,19 +8441,19 @@
         <v>48826</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40669</v>
+        <v>40817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57556</v>
+        <v>58366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1855796060705213</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1545752668368923</v>
+        <v>0.1551394730802597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2187620161436458</v>
+        <v>0.2218390881371232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -8462,19 +8462,19 @@
         <v>71587</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60677</v>
+        <v>61695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83909</v>
+        <v>84503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1341067233921889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1136690189636051</v>
+        <v>0.1155747612642577</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1571893146096293</v>
+        <v>0.1583029613817389</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>247946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>240040</v>
+        <v>239966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254274</v>
+        <v>253603</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9159195993215516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8867133384167956</v>
+        <v>0.8864436281271068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9392960796821148</v>
+        <v>0.9368182886891383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>347</v>
@@ -8512,19 +8512,19 @@
         <v>214273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205543</v>
+        <v>204733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222430</v>
+        <v>222282</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8144203939294787</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7812379838563542</v>
+        <v>0.7781609118628766</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8454247331631078</v>
+        <v>0.8448605269197405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>675</v>
@@ -8533,19 +8533,19 @@
         <v>462219</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>449897</v>
+        <v>449303</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>473129</v>
+        <v>472111</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8658932766078112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8428106853903705</v>
+        <v>0.8416970386182607</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8863309810363948</v>
+        <v>0.8844252387357421</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>45783</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34171</v>
+        <v>34698</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59258</v>
+        <v>60675</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06419156374953208</v>
+        <v>0.06419156374953207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04791068467104603</v>
+        <v>0.04865007349993405</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08308532816791456</v>
+        <v>0.08507181683727105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -8658,19 +8658,19 @@
         <v>121326</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102727</v>
+        <v>104635</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138282</v>
+        <v>140271</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1581457310030013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1339032055166301</v>
+        <v>0.1363903372205927</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.180248413686302</v>
+        <v>0.182840436318555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -8679,19 +8679,19 @@
         <v>167108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>145992</v>
+        <v>144741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191875</v>
+        <v>189408</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1128808273196203</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0986168969164975</v>
+        <v>0.09777157413780886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1296109203738489</v>
+        <v>0.1279444979574627</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>667436</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>653961</v>
+        <v>652544</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>679048</v>
+        <v>678521</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9358084362504679</v>
+        <v>0.9358084362504681</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9169146718320854</v>
+        <v>0.9149281831627288</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9520893153289541</v>
+        <v>0.9513499265000661</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>782</v>
@@ -8729,19 +8729,19 @@
         <v>645850</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>628894</v>
+        <v>626905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>664449</v>
+        <v>662541</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8418542689969988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8197515863136979</v>
+        <v>0.8171595636814453</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8660967944833701</v>
+        <v>0.8636096627794073</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1327</v>
@@ -8750,19 +8750,19 @@
         <v>1313287</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1288520</v>
+        <v>1290987</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1334403</v>
+        <v>1335654</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8871191726803799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.870389079626151</v>
+        <v>0.8720555020425375</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9013831030835026</v>
+        <v>0.9022284258621911</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>25549</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18208</v>
+        <v>17392</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36191</v>
+        <v>35376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03201303115901573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02281543926226441</v>
+        <v>0.02179219164880227</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04534787858405711</v>
+        <v>0.04432650992653071</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>153</v>
@@ -8875,19 +8875,19 @@
         <v>100360</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85744</v>
+        <v>86559</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117242</v>
+        <v>115521</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.120827600647044</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1032302033188612</v>
+        <v>0.1042118552336601</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1411522952497294</v>
+        <v>0.1390802505900577</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -8896,19 +8896,19 @@
         <v>125909</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108366</v>
+        <v>108569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145412</v>
+        <v>144417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07730745860492874</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06653591618774461</v>
+        <v>0.06666074692167452</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08928208831495524</v>
+        <v>0.08867128772333255</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>772523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>761881</v>
+        <v>762696</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>779864</v>
+        <v>780680</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9679869688409841</v>
+        <v>0.9679869688409842</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9546521214159429</v>
+        <v>0.9556734900734677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9771845607377356</v>
+        <v>0.9782078083511976</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>908</v>
@@ -8946,19 +8946,19 @@
         <v>730249</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>713367</v>
+        <v>715088</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>744865</v>
+        <v>744050</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.879172399352956</v>
+        <v>0.8791723993529561</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8588477047502709</v>
+        <v>0.8609197494099424</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.896769796681139</v>
+        <v>0.8957881447663401</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1638</v>
@@ -8967,19 +8967,19 @@
         <v>1502772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1483269</v>
+        <v>1484264</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1520315</v>
+        <v>1520112</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9226925413950712</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9107179116850446</v>
+        <v>0.9113287122766675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9334640838122553</v>
+        <v>0.9333392530783257</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>185107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0525216739642634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>958</v>
@@ -9092,19 +9092,19 @@
         <v>534768</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1198</v>
@@ -9113,19 +9113,19 @@
         <v>719874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3339283</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3313243</v>
+        <v>3312111</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3363738</v>
+        <v>3360747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9474783260357367</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9400898862589843</v>
+        <v>0.9397685850507831</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9544171276506265</v>
+        <v>0.9535685463882975</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4381</v>
@@ -9163,19 +9163,19 @@
         <v>3183542</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3149931</v>
+        <v>3144083</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3216576</v>
+        <v>3212990</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.856179938837988</v>
+        <v>0.8561799388379882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.847140534431881</v>
+        <v>0.8455676265544697</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8650640609604926</v>
+        <v>0.8640994427615362</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7509</v>
@@ -9184,19 +9184,19 @@
         <v>6522826</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6481200</v>
+        <v>6478781</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6564949</v>
+        <v>6562738</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9006068966779918</v>
+        <v>0.9006068966779919</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8948596657190167</v>
+        <v>0.8945256330245681</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9064228216885167</v>
+        <v>0.9061175466865412</v>
       </c>
     </row>
     <row r="30">
